--- a/qualtcom/Organizacional/Calidad/Checklist_Organizacional_150623.xlsx
+++ b/qualtcom/Organizacional/Calidad/Checklist_Organizacional_150623.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\qtp\qualtcom\Organizacional\Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Inf. Gral." sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>No se encontró evidencia de la notificación de las no conformidades.</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>Si existe el correo no se anexó a la evidencia</t>
@@ -387,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,9 +575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -681,6 +684,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -709,7 +713,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1086,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1106,13 +1110,13 @@
     <row r="1" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -1128,34 +1132,34 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="62">
         <v>42178</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1323,23 +1327,23 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1349,14 +1353,14 @@
       <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="13.15" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
@@ -1435,10 +1439,10 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1552,24 +1556,24 @@
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="65" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1579,15 +1583,15 @@
       <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="13.15" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -1662,10 +1666,10 @@
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
@@ -1764,10 +1768,10 @@
       <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -1866,10 +1870,10 @@
       <c r="H25" s="39"/>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
@@ -1955,8 +1959,8 @@
       <c r="H32" s="38"/>
     </row>
     <row r="33" spans="2:8" ht="15.75">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
@@ -1984,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2002,14 +2006,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:8" ht="36.6" customHeight="1">
@@ -2057,14 +2061,14 @@
       <c r="E6" s="59">
         <v>42199</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="60">
         <v>42213</v>
       </c>
       <c r="G6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>73</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="38.25">
@@ -2080,14 +2084,14 @@
       <c r="E7" s="59">
         <v>42199</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="60">
         <v>42213</v>
       </c>
       <c r="G7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>75</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="25.5">
@@ -2103,14 +2107,14 @@
       <c r="E8" s="59">
         <v>42199</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="60">
         <v>42213</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="63.75">
@@ -2126,14 +2130,14 @@
       <c r="E9" s="59">
         <v>42199</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="60">
         <v>42213</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:8">

--- a/qualtcom/Organizacional/Calidad/Checklist_Organizacional_150623.xlsx
+++ b/qualtcom/Organizacional/Calidad/Checklist_Organizacional_150623.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inf. Gral." sheetId="1" r:id="rId1"/>
@@ -575,9 +575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,7 +713,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1090,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
@@ -1132,12 +1131,12 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="B6" s="4" t="s">
@@ -1154,12 +1153,12 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1528,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1988,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
